--- a/deployment/v3/mosip/kernel/masterdata/upload/xlsx_files/gender.xlsx
+++ b/deployment/v3/mosip/kernel/masterdata/upload/xlsx_files/gender.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,59 +436,59 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>lang_code</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>code</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>genderName</t>
-        </is>
-      </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>langCode</t>
+          <t>name</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>isActive</t>
+          <t>is_active</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>MLO</t>
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>eng</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Test</t>
+          <t>MLE</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="D2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
           <t>eng</t>
         </is>
       </c>
-      <c r="D2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>AAA</t>
-        </is>
-      </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>AAA</t>
+          <t>FLE</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>ara</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="D3" t="b">
@@ -496,23 +496,83 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>BBB</t>
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>eng</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>OTH</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>eng</t>
+          <t>Others</t>
         </is>
       </c>
       <c r="D4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>fra</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>MLE</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Mâle</t>
+        </is>
+      </c>
+      <c r="D5" t="b">
         <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>fra</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>FLE</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Femelle</t>
+        </is>
+      </c>
+      <c r="D6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>fra</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>OTH</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Dautres</t>
+        </is>
+      </c>
+      <c r="D7" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/deployment/v3/mosip/kernel/masterdata/upload/xlsx_files/gender.xlsx
+++ b/deployment/v3/mosip/kernel/masterdata/upload/xlsx_files/gender.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,85 +434,163 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>lang_code</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>code</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>genderName</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>langCode</t>
-        </is>
-      </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>isActive</t>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>is_active</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>MLO</t>
-        </is>
+      <c r="A2" s="1" t="n">
+        <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Test</t>
+          <t>eng</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
+          <t>MLE</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="E2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>eng</t>
         </is>
       </c>
-      <c r="D2" t="b">
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>FLE</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="E3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>eng</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>OTH</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Others</t>
+        </is>
+      </c>
+      <c r="E4" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>AAA</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>AAA</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>ara</t>
-        </is>
-      </c>
-      <c r="D3" t="b">
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>fra</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>MLE</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Mâle</t>
+        </is>
+      </c>
+      <c r="E5" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>BBB</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>BBB</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>eng</t>
-        </is>
-      </c>
-      <c r="D4" t="b">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>fra</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>FLE</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Femelle</t>
+        </is>
+      </c>
+      <c r="E6" t="b">
         <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>fra</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>OTH</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Dautres</t>
+        </is>
+      </c>
+      <c r="E7" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
